--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.86729999999999</v>
+        <v>6.144799999999988</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.6623</v>
+        <v>12.68379999999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.46620000000001</v>
+        <v>13.30160000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.6448</v>
+        <v>13.89449999999999</v>
       </c>
     </row>
     <row r="12">
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.761499999999995</v>
+        <v>5.780199999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.15079999999999</v>
+        <v>12.78069999999999</v>
       </c>
     </row>
     <row r="22">
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.639699999999998</v>
+        <v>5.614300000000002</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.802799999999991</v>
+        <v>6.062499999999991</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
